--- a/Sprint 2 Hours Log -- Mason.xlsx
+++ b/Sprint 2 Hours Log -- Mason.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -48,15 +48,41 @@
   </si>
   <si>
     <t>I added the action listener and menu item to the gameboard class and added a resetQueue method to the TileQueue class</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Added colors just for the fun of it</t>
+  </si>
+  <si>
+    <t>Added the menu, menu item, and empty action listener for the Top 10 List</t>
+  </si>
+  <si>
+    <t>SF-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,18 +146,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,7 +486,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,16 +526,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2">
+        <v>42829</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2">
+        <v>42829</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/Sprint 2 Hours Log -- Mason.xlsx
+++ b/Sprint 2 Hours Log -- Mason.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -60,15 +60,31 @@
   </si>
   <si>
     <t>SF-15</t>
+  </si>
+  <si>
+    <t>preGameScreen takes the name and places it into the GameBoard as playerName</t>
+  </si>
+  <si>
+    <t>SF-2</t>
+  </si>
+  <si>
+    <t>preGameScreen gives the option of a timed game or untimed game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -146,18 +162,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,7 +505,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,16 +573,32 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2">
+        <v>42830</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2">
+        <v>42830</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>

--- a/Sprint 2 Hours Log -- Mason.xlsx
+++ b/Sprint 2 Hours Log -- Mason.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -69,15 +69,25 @@
   </si>
   <si>
     <t>preGameScreen gives the option of a timed game or untimed game</t>
+  </si>
+  <si>
+    <t>Added a checkWin method and refactored some of the existing code for stopping when the game is won</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,18 +172,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,7 +518,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,10 +614,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2">
+        <v>42840</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>

--- a/Sprint 2 Hours Log -- Mason.xlsx
+++ b/Sprint 2 Hours Log -- Mason.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -72,15 +72,25 @@
   </si>
   <si>
     <t>Added a checkWin method and refactored some of the existing code for stopping when the game is won</t>
+  </si>
+  <si>
+    <t>Added a timer and have test output going to the console. Just have to add actionListener and logic to end game when timer is 00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,18 +182,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +531,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +539,7 @@
     <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -628,10 +641,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2">
+        <v>42840</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/Sprint 2 Hours Log -- Mason.xlsx
+++ b/Sprint 2 Hours Log -- Mason.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -75,15 +75,25 @@
   </si>
   <si>
     <t>Added a timer and have test output going to the console. Just have to add actionListener and logic to end game when timer is 00:00</t>
+  </si>
+  <si>
+    <t>Finished fixing some bugs and testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -182,18 +192,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,7 +544,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,10 +668,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2">
+        <v>42841</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
